--- a/Task3/Data/Raw_data/Electric_Anisotropy_&_Magnetic_Permeability_Data.xlsx
+++ b/Task3/Data/Raw_data/Electric_Anisotropy_&_Magnetic_Permeability_Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saad J\Desktop\epri\myepri\Task3\Data\Raw_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6C8382-1B0C-48BC-A611-718E65DD1A90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="5700" windowWidth="28215" windowHeight="6750" tabRatio="865"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" tabRatio="865" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="specimens" sheetId="7" r:id="rId1"/>
@@ -45,7 +51,17 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -715,7 +731,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0E+00"/>
@@ -1818,13 +1834,16 @@
     <xf numFmtId="2" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1833,16 +1852,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1866,12 +1882,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1879,6 +1889,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1893,25 +1930,16 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1921,33 +1949,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1980,10 +1981,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1999,12 +2015,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2221,6 +2240,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A809-462F-93D4-2C9FEDB0EEDF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2557,6 +2581,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A809-462F-93D4-2C9FEDB0EEDF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -2740,6 +2769,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A809-462F-93D4-2C9FEDB0EEDF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2973,7 +3007,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3238,6 +3272,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C561-44BE-9A06-49B4937B5880}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3418,6 +3457,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C561-44BE-9A06-49B4937B5880}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3655,6 +3699,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C561-44BE-9A06-49B4937B5880}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -3835,6 +3884,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C561-44BE-9A06-49B4937B5880}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3904,6 +3958,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C561-44BE-9A06-49B4937B5880}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3973,6 +4032,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C561-44BE-9A06-49B4937B5880}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4252,7 +4316,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4395,6 +4459,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F98C-4654-B1B6-245553B16C05}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4510,6 +4579,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F98C-4654-B1B6-245553B16C05}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4625,6 +4699,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F98C-4654-B1B6-245553B16C05}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -4744,6 +4823,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F98C-4654-B1B6-245553B16C05}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4859,6 +4943,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F98C-4654-B1B6-245553B16C05}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -4974,6 +5063,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F98C-4654-B1B6-245553B16C05}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5089,6 +5183,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F98C-4654-B1B6-245553B16C05}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -5204,6 +5303,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F98C-4654-B1B6-245553B16C05}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5505,7 +5609,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5770,6 +5874,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60F4-4200-8F57-E4A1C4CBB67E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5950,6 +6059,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-60F4-4200-8F57-E4A1C4CBB67E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -6187,6 +6301,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-60F4-4200-8F57-E4A1C4CBB67E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -6367,6 +6486,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-60F4-4200-8F57-E4A1C4CBB67E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6612,7 +6736,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6744,6 +6868,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8DA9-4B7D-9435-9C7D732C549F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -6913,6 +7042,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8DA9-4B7D-9435-9C7D732C549F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7124,7 +7258,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7389,6 +7523,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-934C-468C-8D8B-9CFFF3A66F8E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7569,6 +7708,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-934C-468C-8D8B-9CFFF3A66F8E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -7806,6 +7950,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-934C-468C-8D8B-9CFFF3A66F8E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -7986,6 +8135,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-934C-468C-8D8B-9CFFF3A66F8E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -8055,6 +8209,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-934C-468C-8D8B-9CFFF3A66F8E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -8124,6 +8283,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-934C-468C-8D8B-9CFFF3A66F8E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8403,7 +8567,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8682,6 +8846,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D51B-4490-B347-50F787552884}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8730,6 +8899,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D51B-4490-B347-50F787552884}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8933,7 +9107,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9198,6 +9372,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0C5-4023-9157-A688F0BB9DE7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -9370,6 +9549,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D0C5-4023-9157-A688F0BB9DE7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9561,7 +9745,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9826,6 +10010,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E0F-477C-BA50-FBF67CBFA8F1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -9998,6 +10187,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E0F-477C-BA50-FBF67CBFA8F1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -10026,7 +10220,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('relative permeability'!$C$32,'relative permeability'!$D$32,'relative permeability'!$E$32,'relative permeability'!$F$32)</c:f>
+              <c:f>('relative permeability'!$C$33,'relative permeability'!$D$33,'relative permeability'!$E$33,'relative permeability'!$F$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10067,6 +10261,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7E0F-477C-BA50-FBF67CBFA8F1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10275,7 +10474,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10568,6 +10767,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A101-48BC-BA9D-358D812F73F0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -10825,6 +11029,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A101-48BC-BA9D-358D812F73F0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -10868,6 +11077,11 @@
             </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A101-48BC-BA9D-358D812F73F0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -11089,7 +11303,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11374,6 +11588,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E1D1-4DE4-8BCC-C56056E1A003}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -11417,6 +11636,11 @@
             </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E1D1-4DE4-8BCC-C56056E1A003}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -11572,7 +11796,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11793,6 +12017,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-703C-441F-8A8E-634FDA08D22D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -11908,6 +12137,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-703C-441F-8A8E-634FDA08D22D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -12023,6 +12257,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-703C-441F-8A8E-634FDA08D22D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -12138,6 +12377,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-703C-441F-8A8E-634FDA08D22D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -12159,6 +12403,11 @@
                 <a:prstDash val="dash"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-703C-441F-8A8E-634FDA08D22D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numLit>
@@ -12185,6 +12434,11 @@
             </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-703C-441F-8A8E-634FDA08D22D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -12426,7 +12680,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12637,6 +12891,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-20FC-430B-993E-7DD9A973EF64}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -12742,6 +13001,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-20FC-430B-993E-7DD9A973EF64}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -12847,6 +13111,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-20FC-430B-993E-7DD9A973EF64}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -12952,6 +13221,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-20FC-430B-993E-7DD9A973EF64}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -12973,6 +13247,11 @@
                 <a:prstDash val="dash"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-20FC-430B-993E-7DD9A973EF64}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numLit>
@@ -12999,6 +13278,11 @@
             </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-20FC-430B-993E-7DD9A973EF64}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -13240,7 +13524,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -13383,6 +13667,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A24B-4BE9-9201-950BCF9814D4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -13498,6 +13787,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A24B-4BE9-9201-950BCF9814D4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -13613,6 +13907,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A24B-4BE9-9201-950BCF9814D4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -13732,6 +14031,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A24B-4BE9-9201-950BCF9814D4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -13847,6 +14151,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A24B-4BE9-9201-950BCF9814D4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -13962,6 +14271,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A24B-4BE9-9201-950BCF9814D4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -14077,6 +14391,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A24B-4BE9-9201-950BCF9814D4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -14192,6 +14511,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A24B-4BE9-9201-950BCF9814D4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -14496,7 +14820,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -14761,6 +15085,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6DF4-4889-821D-10C6D2E1A54B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -14941,6 +15270,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6DF4-4889-821D-10C6D2E1A54B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -15178,6 +15512,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6DF4-4889-821D-10C6D2E1A54B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -15358,6 +15697,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6DF4-4889-821D-10C6D2E1A54B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -15606,7 +15950,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15749,6 +16093,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-24AF-49BD-911D-50061F542031}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -15864,6 +16213,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-24AF-49BD-911D-50061F542031}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -15979,6 +16333,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-24AF-49BD-911D-50061F542031}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -16098,6 +16457,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-24AF-49BD-911D-50061F542031}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -16213,6 +16577,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-24AF-49BD-911D-50061F542031}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -16328,6 +16697,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-24AF-49BD-911D-50061F542031}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -16443,6 +16817,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-24AF-49BD-911D-50061F542031}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -16558,6 +16937,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-24AF-49BD-911D-50061F542031}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -16859,7 +17243,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -17124,6 +17508,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5596-402F-B72C-8F4B5A2A5FB1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -17304,6 +17693,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5596-402F-B72C-8F4B5A2A5FB1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -17541,6 +17935,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5596-402F-B72C-8F4B5A2A5FB1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -17721,6 +18120,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5596-402F-B72C-8F4B5A2A5FB1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -17982,7 +18386,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -18037,7 +18447,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -18097,7 +18513,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -18134,7 +18556,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -18166,7 +18594,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -18203,7 +18637,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -18235,7 +18675,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -18272,20 +18718,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4400550" y="3238500"/>
-          <a:ext cx="5029200" cy="3657600"/>
+          <a:off x="4565530" y="3079630"/>
+          <a:ext cx="5221677" cy="3480040"/>
           <a:chOff x="6248400" y="2667000"/>
           <a:chExt cx="5029200" cy="3657600"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="3" name="Chart 2"/>
+          <xdr:cNvPr id="3" name="Chart 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGraphicFramePr>
             <a:graphicFrameLocks/>
           </xdr:cNvGraphicFramePr>
@@ -18302,7 +18760,13 @@
       </xdr:graphicFrame>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="TextBox 3"/>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -18377,7 +18841,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -18414,20 +18884,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4400550" y="3810000"/>
-          <a:ext cx="5029200" cy="3657600"/>
+          <a:off x="4565530" y="3623094"/>
+          <a:ext cx="5221677" cy="3480040"/>
           <a:chOff x="6248400" y="2667000"/>
           <a:chExt cx="5029200" cy="3657600"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="3" name="Chart 2"/>
+          <xdr:cNvPr id="3" name="Chart 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGraphicFramePr>
             <a:graphicFrameLocks/>
           </xdr:cNvGraphicFramePr>
@@ -18444,7 +18926,13 @@
       </xdr:graphicFrame>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="TextBox 3"/>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -18519,7 +19007,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -18551,7 +19045,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -18588,20 +19088,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4400550" y="3810000"/>
-          <a:ext cx="5029200" cy="3657600"/>
+          <a:off x="4565530" y="3623094"/>
+          <a:ext cx="5221677" cy="3480040"/>
           <a:chOff x="6248400" y="2667000"/>
           <a:chExt cx="5029200" cy="3657600"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="3" name="Chart 2"/>
+          <xdr:cNvPr id="3" name="Chart 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGraphicFramePr>
             <a:graphicFrameLocks/>
           </xdr:cNvGraphicFramePr>
@@ -18618,7 +19130,13 @@
       </xdr:graphicFrame>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="TextBox 3"/>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -18693,7 +19211,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -18725,7 +19249,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -18757,7 +19287,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -18794,7 +19330,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -18826,7 +19368,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -18858,7 +19406,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -18921,7 +19475,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -18954,9 +19508,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -18989,6 +19560,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -19164,26 +19752,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
   <dimension ref="B2:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" customWidth="1"/>
+    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" customWidth="1"/>
+    <col min="18" max="18" width="20.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="13:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="13:18" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M2" s="150" t="s">
         <v>8</v>
       </c>
@@ -19203,7 +19791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="13:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M3" s="153">
         <v>1</v>
       </c>
@@ -19221,7 +19809,7 @@
       </c>
       <c r="R3" s="153"/>
     </row>
-    <row r="4" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="13:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M4" s="153">
         <v>2</v>
       </c>
@@ -19239,7 +19827,7 @@
       </c>
       <c r="R4" s="153"/>
     </row>
-    <row r="5" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="13:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M5" s="153">
         <v>3</v>
       </c>
@@ -19257,7 +19845,7 @@
       </c>
       <c r="R5" s="153"/>
     </row>
-    <row r="6" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="13:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M6" s="153">
         <v>4</v>
       </c>
@@ -19275,7 +19863,7 @@
       </c>
       <c r="R6" s="153"/>
     </row>
-    <row r="7" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="13:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M7" s="153">
         <v>5</v>
       </c>
@@ -19293,7 +19881,7 @@
       </c>
       <c r="R7" s="153"/>
     </row>
-    <row r="8" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="13:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M8" s="153">
         <v>6</v>
       </c>
@@ -19311,7 +19899,7 @@
       </c>
       <c r="R8" s="153"/>
     </row>
-    <row r="9" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="13:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M9" s="153">
         <v>7</v>
       </c>
@@ -19329,7 +19917,7 @@
       </c>
       <c r="R9" s="153"/>
     </row>
-    <row r="10" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="13:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M10" s="153">
         <v>8</v>
       </c>
@@ -19347,7 +19935,7 @@
       </c>
       <c r="R10" s="153"/>
     </row>
-    <row r="11" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="13:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M11" s="153">
         <v>9</v>
       </c>
@@ -19365,7 +19953,7 @@
       </c>
       <c r="R11" s="153"/>
     </row>
-    <row r="12" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="13:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M12" s="153">
         <v>10</v>
       </c>
@@ -19383,7 +19971,7 @@
       </c>
       <c r="R12" s="153"/>
     </row>
-    <row r="13" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="13:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M13" s="153">
         <v>11</v>
       </c>
@@ -19401,7 +19989,7 @@
       </c>
       <c r="R13" s="153"/>
     </row>
-    <row r="14" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="13:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M14" s="153">
         <v>12</v>
       </c>
@@ -19419,7 +20007,7 @@
       </c>
       <c r="R14" s="153"/>
     </row>
-    <row r="15" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="13:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M15" s="153">
         <v>13</v>
       </c>
@@ -19437,7 +20025,7 @@
       </c>
       <c r="R15" s="153"/>
     </row>
-    <row r="16" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="13:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M16" s="153">
         <v>14</v>
       </c>
@@ -19455,7 +20043,7 @@
       </c>
       <c r="R16" s="153"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M17" s="153">
         <v>15</v>
       </c>
@@ -19473,7 +20061,7 @@
       </c>
       <c r="R17" s="153"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M18" s="153">
         <v>16</v>
       </c>
@@ -19491,7 +20079,7 @@
       </c>
       <c r="R18" s="153"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M19" s="153">
         <v>17</v>
       </c>
@@ -19509,7 +20097,7 @@
       </c>
       <c r="R19" s="153"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M20" s="153">
         <v>18</v>
       </c>
@@ -19527,7 +20115,7 @@
       </c>
       <c r="R20" s="153"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M21" s="153">
         <v>19</v>
       </c>
@@ -19545,7 +20133,7 @@
       </c>
       <c r="R21" s="153"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M22" s="153">
         <v>20</v>
       </c>
@@ -19563,7 +20151,7 @@
       </c>
       <c r="R22" s="153"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M23" s="153">
         <v>21</v>
       </c>
@@ -19581,7 +20169,7 @@
       </c>
       <c r="R23" s="153"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M24" s="153">
         <v>22</v>
       </c>
@@ -19599,7 +20187,7 @@
       </c>
       <c r="R24" s="153"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M25" s="153">
         <v>23</v>
       </c>
@@ -19617,7 +20205,7 @@
       </c>
       <c r="R25" s="153"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M26" s="153">
         <v>24</v>
       </c>
@@ -19635,7 +20223,7 @@
       </c>
       <c r="R26" s="153"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M27" s="153">
         <v>25</v>
       </c>
@@ -19653,7 +20241,7 @@
       </c>
       <c r="R27" s="153"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M28" s="153">
         <v>26</v>
       </c>
@@ -19671,7 +20259,7 @@
       </c>
       <c r="R28" s="153"/>
     </row>
-    <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M29" s="153">
         <v>27</v>
       </c>
@@ -19689,7 +20277,7 @@
       </c>
       <c r="R29" s="153"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M30" s="153">
         <v>28</v>
       </c>
@@ -19707,7 +20295,7 @@
       </c>
       <c r="R30" s="153"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="M31" s="153">
         <v>29</v>
       </c>
@@ -19725,7 +20313,7 @@
       </c>
       <c r="R31" s="153"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
       <c r="D32" s="43"/>
@@ -19754,7 +20342,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B33" s="43"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -19783,7 +20371,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B34" s="43"/>
       <c r="C34" s="44"/>
       <c r="D34" s="44"/>
@@ -19958,27 +20546,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="12.7109375" style="103" customWidth="1"/>
-    <col min="10" max="22" width="12.7109375" style="5" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="9" width="12.75" style="103" customWidth="1"/>
+    <col min="10" max="22" width="12.75" style="5" customWidth="1"/>
+    <col min="23" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="277" t="s">
         <v>113</v>
       </c>
       <c r="B1" s="278"/>
       <c r="C1" s="278"/>
-      <c r="D1" s="283"/>
+      <c r="D1" s="279"/>
       <c r="E1" s="174"/>
       <c r="F1" s="174"/>
       <c r="G1" s="174"/>
@@ -19986,12 +20574,12 @@
       <c r="I1" s="174"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="280" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="284"/>
+      <c r="B2" s="281"/>
+      <c r="C2" s="281"/>
+      <c r="D2" s="282"/>
       <c r="E2" s="174"/>
       <c r="F2" s="174"/>
       <c r="G2" s="183"/>
@@ -20000,14 +20588,14 @@
       <c r="J2" s="161"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="282" t="s">
+      <c r="A3" s="277" t="s">
         <v>145</v>
       </c>
       <c r="B3" s="278"/>
       <c r="C3" s="278" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="283"/>
+      <c r="D3" s="279"/>
       <c r="E3" s="174"/>
       <c r="F3" s="174"/>
       <c r="G3" s="183"/>
@@ -20016,27 +20604,27 @@
       <c r="J3" s="161"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="279" t="s">
+      <c r="A4" s="280" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="280"/>
-      <c r="C4" s="280" t="s">
+      <c r="B4" s="281"/>
+      <c r="C4" s="281" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="282"/>
       <c r="E4" s="174"/>
       <c r="F4" s="174"/>
-      <c r="G4" s="281"/>
-      <c r="H4" s="281"/>
+      <c r="G4" s="276"/>
+      <c r="H4" s="276"/>
       <c r="I4" s="182"/>
       <c r="J4" s="161"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="276" t="s">
+      <c r="A5" s="283" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="277"/>
-      <c r="C5" s="277" t="s">
+      <c r="B5" s="284"/>
+      <c r="C5" s="284" t="s">
         <v>112</v>
       </c>
       <c r="D5" s="285"/>
@@ -20059,12 +20647,12 @@
       <c r="I6" s="174"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="282" t="s">
+      <c r="A7" s="277" t="s">
         <v>144</v>
       </c>
       <c r="B7" s="278"/>
       <c r="C7" s="278"/>
-      <c r="D7" s="283"/>
+      <c r="D7" s="279"/>
       <c r="E7" s="174"/>
       <c r="F7" s="174"/>
       <c r="G7" s="174"/>
@@ -20072,20 +20660,20 @@
       <c r="I7" s="174"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="279" t="s">
+      <c r="A8" s="280" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="280"/>
+      <c r="B8" s="281"/>
       <c r="C8" s="180">
         <v>12</v>
       </c>
       <c r="D8" s="160"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="279" t="s">
+      <c r="A9" s="280" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="280"/>
+      <c r="B9" s="281"/>
       <c r="C9" s="172">
         <v>17.23883508535382</v>
       </c>
@@ -20094,10 +20682,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="279" t="s">
+      <c r="A10" s="280" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="280"/>
+      <c r="B10" s="281"/>
       <c r="C10" s="172">
         <v>6.2526606521323433</v>
       </c>
@@ -20106,10 +20694,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="279" t="s">
+      <c r="A11" s="280" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="280"/>
+      <c r="B11" s="281"/>
       <c r="C11" s="172">
         <f>SQRT(SUM(J24:J33))</f>
         <v>0.5738191903701122</v>
@@ -20119,10 +20707,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="276" t="s">
+      <c r="A12" s="283" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="277"/>
+      <c r="B12" s="284"/>
       <c r="C12" s="163">
         <v>4</v>
       </c>
@@ -20142,18 +20730,18 @@
       <c r="I13" s="174"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="282" t="s">
+      <c r="A14" s="277" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="278"/>
       <c r="C14" s="278"/>
-      <c r="D14" s="283"/>
+      <c r="D14" s="279"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="279" t="s">
+      <c r="A15" s="280" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="280"/>
+      <c r="B15" s="281"/>
       <c r="C15" s="159">
         <v>10</v>
       </c>
@@ -20162,10 +20750,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="279" t="s">
+      <c r="A16" s="280" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="280"/>
+      <c r="B16" s="281"/>
       <c r="C16" s="181">
         <v>5800000</v>
       </c>
@@ -20174,10 +20762,10 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="279" t="s">
+      <c r="A17" s="280" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="280"/>
+      <c r="B17" s="281"/>
       <c r="C17" s="159">
         <f>1.61</f>
         <v>1.61</v>
@@ -20187,10 +20775,10 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="279" t="s">
+      <c r="A18" s="280" t="s">
         <v>133</v>
       </c>
-      <c r="B18" s="280"/>
+      <c r="B18" s="281"/>
       <c r="C18" s="181">
         <f>C16*C17/C10</f>
         <v>1493444.2343061531</v>
@@ -20201,10 +20789,10 @@
       <c r="E18" s="175"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="279" t="s">
+      <c r="A19" s="280" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="280"/>
+      <c r="B19" s="281"/>
       <c r="C19" s="172">
         <f>C18/58000000*100</f>
         <v>2.5749038522519885</v>
@@ -20214,10 +20802,10 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="276" t="s">
+      <c r="A20" s="283" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="277"/>
+      <c r="B20" s="284"/>
       <c r="C20" s="32">
         <f>1/C18*100000000</f>
         <v>66.959313044895524</v>
@@ -21638,6 +22226,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A14:D14"/>
@@ -21654,13 +22249,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21669,16 +22257,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.65" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.7109375" style="191"/>
+    <col min="1" max="16384" width="10.75" style="191"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -23961,42 +24549,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="51" width="12.7109375" style="5" customWidth="1"/>
-    <col min="52" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.125" style="5"/>
+    <col min="2" max="51" width="12.75" style="5" customWidth="1"/>
+    <col min="52" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="277" t="s">
         <v>113</v>
       </c>
       <c r="B1" s="278"/>
       <c r="C1" s="278"/>
-      <c r="D1" s="283"/>
+      <c r="D1" s="279"/>
       <c r="F1" s="114"/>
       <c r="G1" s="114"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="280" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="284"/>
+      <c r="B2" s="281"/>
+      <c r="C2" s="281"/>
+      <c r="D2" s="282"/>
       <c r="F2" s="27"/>
-      <c r="G2" s="294" t="s">
+      <c r="G2" s="292" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="295"/>
+      <c r="H2" s="293"/>
       <c r="I2" s="142">
         <v>50.456606666666659</v>
       </c>
@@ -24005,19 +24593,19 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="282" t="s">
+      <c r="A3" s="277" t="s">
         <v>109</v>
       </c>
       <c r="B3" s="278"/>
       <c r="C3" s="278" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="283"/>
+      <c r="D3" s="279"/>
       <c r="F3" s="103"/>
-      <c r="G3" s="296" t="s">
+      <c r="G3" s="294" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="281"/>
+      <c r="H3" s="276"/>
       <c r="I3" s="144">
         <v>49.705458333333326</v>
       </c>
@@ -24026,19 +24614,19 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="279" t="s">
+      <c r="A4" s="280" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="280"/>
-      <c r="C4" s="280" t="s">
+      <c r="B4" s="281"/>
+      <c r="C4" s="281" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="282"/>
       <c r="F4" s="103"/>
-      <c r="G4" s="292" t="s">
+      <c r="G4" s="295" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="293"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="146">
         <v>1.5111988874461302</v>
       </c>
@@ -24047,11 +24635,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="276" t="s">
+      <c r="A5" s="283" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="277"/>
-      <c r="C5" s="277" t="s">
+      <c r="B5" s="284"/>
+      <c r="C5" s="284" t="s">
         <v>112</v>
       </c>
       <c r="D5" s="285"/>
@@ -24283,17 +24871,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -24301,39 +24889,39 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
   <dimension ref="A1:W128"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="C7" sqref="C7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="5" customWidth="1"/>
-    <col min="2" max="14" width="10.7109375" style="103" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="5" customWidth="1"/>
-    <col min="16" max="18" width="10.7109375" style="103" customWidth="1"/>
-    <col min="19" max="20" width="10.7109375" style="5" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="10.75" style="5" customWidth="1"/>
+    <col min="2" max="14" width="10.75" style="103" customWidth="1"/>
+    <col min="15" max="15" width="10.75" style="5" customWidth="1"/>
+    <col min="16" max="18" width="10.75" style="103" customWidth="1"/>
+    <col min="19" max="20" width="10.75" style="5" customWidth="1"/>
+    <col min="21" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="277" t="s">
         <v>113</v>
       </c>
       <c r="B1" s="278"/>
       <c r="C1" s="278"/>
-      <c r="D1" s="283"/>
+      <c r="D1" s="279"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="H1" s="297" t="s">
+      <c r="H1" s="304" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="298"/>
+      <c r="I1" s="305"/>
       <c r="J1" s="114"/>
       <c r="K1" s="114"/>
       <c r="L1" s="5"/>
@@ -24341,23 +24929,23 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="280" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="284"/>
+      <c r="B2" s="281"/>
+      <c r="C2" s="281"/>
+      <c r="D2" s="282"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="H2" s="299" t="s">
+      <c r="H2" s="306" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="300"/>
+      <c r="I2" s="307"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="294" t="s">
+      <c r="K2" s="292" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="295"/>
+      <c r="L2" s="293"/>
       <c r="M2" s="142">
         <v>50.456606666666659</v>
       </c>
@@ -24366,24 +24954,24 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="282" t="s">
+      <c r="A3" s="277" t="s">
         <v>109</v>
       </c>
       <c r="B3" s="278"/>
       <c r="C3" s="278" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="283"/>
+      <c r="D3" s="279"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="H3" s="301" t="s">
+      <c r="H3" s="300" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="302"/>
-      <c r="K3" s="296" t="s">
+      <c r="I3" s="301"/>
+      <c r="K3" s="294" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="281"/>
+      <c r="L3" s="276"/>
       <c r="M3" s="144">
         <v>49.705458333333326</v>
       </c>
@@ -24392,24 +24980,24 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="279" t="s">
+      <c r="A4" s="280" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="280"/>
-      <c r="C4" s="280" t="s">
+      <c r="B4" s="281"/>
+      <c r="C4" s="281" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="282"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="H4" s="303" t="s">
+      <c r="H4" s="302" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="304"/>
-      <c r="K4" s="292" t="s">
+      <c r="I4" s="303"/>
+      <c r="K4" s="295" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="293"/>
+      <c r="L4" s="296"/>
       <c r="M4" s="146">
         <v>1.5111988874461302</v>
       </c>
@@ -24418,11 +25006,11 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="276" t="s">
+      <c r="A5" s="283" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="277"/>
-      <c r="C5" s="277" t="s">
+      <c r="B5" s="284"/>
+      <c r="C5" s="284" t="s">
         <v>112</v>
       </c>
       <c r="D5" s="285"/>
@@ -24445,18 +25033,18 @@
       <c r="B7" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="305" t="s">
+      <c r="C7" s="297" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="306"/>
-      <c r="E7" s="306"/>
-      <c r="F7" s="306"/>
-      <c r="G7" s="305" t="s">
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="297" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="306"/>
-      <c r="I7" s="306"/>
-      <c r="J7" s="307"/>
+      <c r="H7" s="298"/>
+      <c r="I7" s="298"/>
+      <c r="J7" s="299"/>
       <c r="K7" s="100" t="s">
         <v>5</v>
       </c>
@@ -24466,12 +25054,12 @@
       <c r="M7" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="305" t="s">
+      <c r="N7" s="297" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="306"/>
-      <c r="P7" s="306"/>
-      <c r="Q7" s="307"/>
+      <c r="O7" s="298"/>
+      <c r="P7" s="298"/>
+      <c r="Q7" s="299"/>
       <c r="R7" s="100" t="s">
         <v>5</v>
       </c>
@@ -27481,11 +28069,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:L4"/>
@@ -27494,11 +28082,11 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="N7:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -27506,39 +28094,39 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
   <dimension ref="A1:T145"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:J19"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="5" customWidth="1"/>
-    <col min="2" max="14" width="10.7109375" style="174" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="5" customWidth="1"/>
-    <col min="16" max="18" width="10.7109375" style="174" customWidth="1"/>
-    <col min="19" max="20" width="10.7109375" style="5" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="10.75" style="5" customWidth="1"/>
+    <col min="2" max="14" width="10.75" style="174" customWidth="1"/>
+    <col min="15" max="15" width="10.75" style="5" customWidth="1"/>
+    <col min="16" max="18" width="10.75" style="174" customWidth="1"/>
+    <col min="19" max="20" width="10.75" style="5" customWidth="1"/>
+    <col min="21" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="277" t="s">
         <v>90</v>
       </c>
       <c r="B1" s="278"/>
       <c r="C1" s="278" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="283"/>
+      <c r="D1" s="279"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
       <c r="J1" s="114"/>
       <c r="K1" s="114"/>
       <c r="L1" s="5"/>
@@ -27546,20 +28134,20 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="280" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280" t="s">
+      <c r="B2" s="281"/>
+      <c r="C2" s="281" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="284"/>
+      <c r="D2" s="282"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="H2" s="309" t="s">
+      <c r="H2" s="313" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="310"/>
+      <c r="I2" s="314"/>
       <c r="J2" s="27"/>
       <c r="K2" s="99"/>
       <c r="L2" s="5"/>
@@ -27567,59 +28155,59 @@
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="279" t="s">
+      <c r="A3" s="280" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="280"/>
-      <c r="C3" s="280" t="s">
+      <c r="B3" s="281"/>
+      <c r="C3" s="281" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="284"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="H3" s="301" t="s">
+      <c r="H3" s="300" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="302"/>
+      <c r="I3" s="301"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="279" t="s">
+      <c r="A4" s="280" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="280"/>
-      <c r="C4" s="280" t="s">
+      <c r="B4" s="281"/>
+      <c r="C4" s="281" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="282"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="H4" s="311" t="s">
+      <c r="H4" s="310" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="312"/>
+      <c r="I4" s="311"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="276" t="s">
+      <c r="A5" s="283" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="277"/>
-      <c r="C5" s="277" t="s">
+      <c r="B5" s="284"/>
+      <c r="C5" s="284" t="s">
         <v>97</v>
       </c>
       <c r="D5" s="285"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="98"/>
-      <c r="H5" s="313" t="s">
+      <c r="H5" s="308" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="314"/>
+      <c r="I5" s="309"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
@@ -27637,18 +28225,18 @@
       <c r="B7" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="305" t="s">
+      <c r="C7" s="297" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="306"/>
-      <c r="E7" s="306"/>
-      <c r="F7" s="306"/>
-      <c r="G7" s="305" t="s">
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="297" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="306"/>
-      <c r="I7" s="306"/>
-      <c r="J7" s="307"/>
+      <c r="H7" s="298"/>
+      <c r="I7" s="298"/>
+      <c r="J7" s="299"/>
       <c r="K7" s="165" t="s">
         <v>5</v>
       </c>
@@ -27658,12 +28246,12 @@
       <c r="M7" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="305" t="s">
+      <c r="N7" s="297" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="306"/>
-      <c r="P7" s="306"/>
-      <c r="Q7" s="307"/>
+      <c r="O7" s="298"/>
+      <c r="P7" s="298"/>
+      <c r="Q7" s="299"/>
       <c r="R7" s="165" t="s">
         <v>5</v>
       </c>
@@ -28371,18 +28959,6 @@
       <c r="B18" s="247" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="248" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="249" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="249" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="249" t="s">
-        <v>45</v>
-      </c>
       <c r="G18" s="124">
         <v>0.318</v>
       </c>
@@ -28411,10 +28987,18 @@
         <v>162</v>
       </c>
       <c r="B19" s="257"/>
-      <c r="C19" s="250"/>
-      <c r="D19" s="251"/>
-      <c r="E19" s="251"/>
-      <c r="F19" s="251"/>
+      <c r="C19" s="248" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="249" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="249" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="249" t="s">
+        <v>45</v>
+      </c>
       <c r="G19" s="252">
         <f>AVERAGE(B138:B143)</f>
         <v>-0.97145999999999977</v>
@@ -31026,24 +31610,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="N7:Q7"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -31051,109 +31635,109 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
   <dimension ref="A1:AL145"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="C19" sqref="C19:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="5" customWidth="1"/>
-    <col min="2" max="14" width="10.7109375" style="97" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="5" customWidth="1"/>
-    <col min="16" max="18" width="10.7109375" style="97" customWidth="1"/>
-    <col min="19" max="20" width="10.7109375" style="5" customWidth="1"/>
-    <col min="21" max="38" width="10.7109375" style="103" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="10.75" style="5" customWidth="1"/>
+    <col min="2" max="14" width="10.75" style="97" customWidth="1"/>
+    <col min="15" max="15" width="10.75" style="5" customWidth="1"/>
+    <col min="16" max="18" width="10.75" style="97" customWidth="1"/>
+    <col min="19" max="20" width="10.75" style="5" customWidth="1"/>
+    <col min="21" max="38" width="10.75" style="103" customWidth="1"/>
+    <col min="39" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="277" t="s">
         <v>90</v>
       </c>
       <c r="B1" s="278"/>
       <c r="C1" s="278" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="283"/>
+      <c r="D1" s="279"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
       <c r="J1" s="114"/>
       <c r="K1" s="114"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="280" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280" t="s">
+      <c r="B2" s="281"/>
+      <c r="C2" s="281" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="284"/>
+      <c r="D2" s="282"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="H2" s="309" t="s">
+      <c r="H2" s="313" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="310"/>
+      <c r="I2" s="314"/>
       <c r="J2" s="27"/>
       <c r="K2" s="93"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="279" t="s">
+      <c r="A3" s="280" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="280"/>
-      <c r="C3" s="280" t="s">
+      <c r="B3" s="281"/>
+      <c r="C3" s="281" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="284"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="H3" s="301" t="s">
+      <c r="H3" s="300" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="302"/>
+      <c r="I3" s="301"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="279" t="s">
+      <c r="A4" s="280" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="280"/>
-      <c r="C4" s="280" t="s">
+      <c r="B4" s="281"/>
+      <c r="C4" s="281" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="282"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="H4" s="311" t="s">
+      <c r="H4" s="310" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="312"/>
+      <c r="I4" s="311"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="276" t="s">
+      <c r="A5" s="283" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="277"/>
-      <c r="C5" s="277" t="s">
+      <c r="B5" s="284"/>
+      <c r="C5" s="284" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="285"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="98"/>
-      <c r="H5" s="313" t="s">
+      <c r="H5" s="308" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="314"/>
+      <c r="I5" s="309"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
@@ -31163,11 +31747,11 @@
       <c r="D6" s="5"/>
       <c r="F6" s="98"/>
       <c r="G6" s="98"/>
-      <c r="V6" s="282" t="s">
+      <c r="V6" s="277" t="s">
         <v>120</v>
       </c>
       <c r="W6" s="278"/>
-      <c r="X6" s="283"/>
+      <c r="X6" s="279"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="94" t="s">
@@ -31176,18 +31760,18 @@
       <c r="B7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="305" t="s">
+      <c r="C7" s="297" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="306"/>
-      <c r="E7" s="306"/>
-      <c r="F7" s="306"/>
-      <c r="G7" s="305" t="s">
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="297" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="306"/>
-      <c r="I7" s="306"/>
-      <c r="J7" s="307"/>
+      <c r="H7" s="298"/>
+      <c r="I7" s="298"/>
+      <c r="J7" s="299"/>
       <c r="K7" s="94" t="s">
         <v>5</v>
       </c>
@@ -31197,12 +31781,12 @@
       <c r="M7" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="305" t="s">
+      <c r="N7" s="297" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="306"/>
-      <c r="P7" s="306"/>
-      <c r="Q7" s="307"/>
+      <c r="O7" s="298"/>
+      <c r="P7" s="298"/>
+      <c r="Q7" s="299"/>
       <c r="R7" s="94" t="s">
         <v>5</v>
       </c>
@@ -31990,18 +32574,6 @@
       <c r="B18" s="247" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="248" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="249" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="249" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="249" t="s">
-        <v>45</v>
-      </c>
       <c r="G18" s="124">
         <v>0.318</v>
       </c>
@@ -32044,10 +32616,18 @@
         <v>162</v>
       </c>
       <c r="B19" s="257"/>
-      <c r="C19" s="250"/>
-      <c r="D19" s="251"/>
-      <c r="E19" s="251"/>
-      <c r="F19" s="251"/>
+      <c r="C19" s="248" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="249" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="249" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="249" t="s">
+        <v>45</v>
+      </c>
       <c r="G19" s="252">
         <f>AVERAGE(B138:B143)</f>
         <v>-1.6001640000000001</v>
@@ -34636,11 +35216,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="A3:B3"/>
@@ -34649,12 +35230,11 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -34662,53 +35242,53 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
   <dimension ref="A1:X178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="5" customWidth="1"/>
-    <col min="2" max="14" width="10.7109375" style="103" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="5" customWidth="1"/>
-    <col min="16" max="18" width="10.7109375" style="103" customWidth="1"/>
-    <col min="19" max="20" width="10.7109375" style="5" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="10.75" style="5" customWidth="1"/>
+    <col min="2" max="14" width="10.75" style="103" customWidth="1"/>
+    <col min="15" max="15" width="10.75" style="5" customWidth="1"/>
+    <col min="16" max="18" width="10.75" style="103" customWidth="1"/>
+    <col min="19" max="20" width="10.75" style="5" customWidth="1"/>
+    <col min="21" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="322" t="s">
+      <c r="A1" s="317" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="323"/>
-      <c r="C1" s="323"/>
-      <c r="D1" s="323"/>
-      <c r="E1" s="324"/>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
-      <c r="K1" s="320" t="s">
+      <c r="B1" s="318"/>
+      <c r="C1" s="318"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="319"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="K1" s="315" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="321"/>
+      <c r="L1" s="316"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="325" t="s">
+      <c r="A2" s="320" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="326"/>
-      <c r="C2" s="326"/>
-      <c r="D2" s="326"/>
-      <c r="E2" s="327"/>
-      <c r="H2" s="309" t="s">
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="322"/>
+      <c r="H2" s="313" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="310"/>
+      <c r="I2" s="314"/>
       <c r="K2" s="104" t="s">
         <v>72</v>
       </c>
@@ -34717,17 +35297,17 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="315" t="s">
+      <c r="A3" s="325" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="317"/>
-      <c r="H3" s="301" t="s">
+      <c r="B3" s="326"/>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="327"/>
+      <c r="H3" s="300" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="302"/>
+      <c r="I3" s="301"/>
       <c r="K3" s="107" t="s">
         <v>73</v>
       </c>
@@ -34743,15 +35323,15 @@
         <f>0.06</f>
         <v>0.06</v>
       </c>
-      <c r="C4" s="318" t="s">
+      <c r="C4" s="328" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="318"/>
-      <c r="E4" s="319"/>
-      <c r="H4" s="311" t="s">
+      <c r="D4" s="328"/>
+      <c r="E4" s="329"/>
+      <c r="H4" s="310" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="312"/>
+      <c r="I4" s="311"/>
       <c r="K4" s="104" t="s">
         <v>71</v>
       </c>
@@ -34766,15 +35346,15 @@
       <c r="B5" s="68">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="C5" s="328" t="s">
+      <c r="C5" s="323" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="328"/>
-      <c r="E5" s="329"/>
-      <c r="H5" s="313" t="s">
+      <c r="D5" s="323"/>
+      <c r="E5" s="324"/>
+      <c r="H5" s="308" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="314"/>
+      <c r="I5" s="309"/>
       <c r="K5" s="106">
         <v>150</v>
       </c>
@@ -34833,18 +35413,18 @@
       <c r="B8" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="305" t="s">
+      <c r="C8" s="297" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="306"/>
-      <c r="E8" s="306"/>
-      <c r="F8" s="306"/>
-      <c r="G8" s="305" t="s">
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
+      <c r="G8" s="297" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="306"/>
-      <c r="I8" s="306"/>
-      <c r="J8" s="306"/>
+      <c r="H8" s="298"/>
+      <c r="I8" s="298"/>
+      <c r="J8" s="298"/>
       <c r="K8" s="100" t="s">
         <v>5</v>
       </c>
@@ -35315,18 +35895,6 @@
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="269"/>
       <c r="B18" s="267"/>
-      <c r="C18" s="248" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="249" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="249" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="249" t="s">
-        <v>45</v>
-      </c>
       <c r="G18" s="124"/>
       <c r="H18" s="125"/>
       <c r="I18" s="125"/>
@@ -35342,17 +35910,17 @@
       <c r="B19" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="250">
-        <v>0.318</v>
-      </c>
-      <c r="D19" s="251">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="E19" s="251">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="F19" s="251">
-        <v>1.0740000000000001</v>
+      <c r="C19" s="248" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="249" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="249" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="249" t="s">
+        <v>45</v>
       </c>
       <c r="G19" s="273">
         <v>87.896200000000007</v>
@@ -35365,6 +35933,20 @@
       </c>
       <c r="J19" s="275">
         <v>89.750059999999991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C20" s="250">
+        <v>0.318</v>
+      </c>
+      <c r="D20" s="251">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="E20" s="251">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F20" s="251">
+        <v>1.0740000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -35374,19 +35956,19 @@
       <c r="B21" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="305" t="s">
+      <c r="C21" s="297" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="306"/>
-      <c r="E21" s="306"/>
-      <c r="F21" s="306"/>
-      <c r="G21" s="305" t="str">
+      <c r="D21" s="298"/>
+      <c r="E21" s="298"/>
+      <c r="F21" s="298"/>
+      <c r="G21" s="297" t="str">
         <f>"  average relative permeability (1-10)"</f>
         <v xml:space="preserve">  average relative permeability (1-10)</v>
       </c>
-      <c r="H21" s="306"/>
-      <c r="I21" s="306"/>
-      <c r="J21" s="306"/>
+      <c r="H21" s="298"/>
+      <c r="I21" s="298"/>
+      <c r="J21" s="298"/>
       <c r="K21" s="100" t="s">
         <v>5</v>
       </c>
@@ -35812,18 +36394,6 @@
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="270"/>
       <c r="B31" s="268"/>
-      <c r="C31" s="248" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="249" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="249" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="249" t="s">
-        <v>45</v>
-      </c>
       <c r="G31" s="124"/>
       <c r="H31" s="125"/>
       <c r="I31" s="125"/>
@@ -35837,41 +36407,49 @@
       <c r="B32" s="272" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="250">
-        <v>0.318</v>
-      </c>
-      <c r="D32" s="251">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="E32" s="251">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="F32" s="251">
-        <v>1.0740000000000001</v>
+      <c r="C32" s="248" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="249" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="249" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="249" t="s">
+        <v>45</v>
       </c>
       <c r="G32" s="273">
         <f>1+$B$4*G19+$B$5*G19^2</f>
         <v>156.15316630413605</v>
       </c>
       <c r="H32" s="274">
-        <f t="shared" ref="H32:J32" si="9">1+$B$4*H19+$B$5*H19^2</f>
+        <f>1+$B$4*H19+$B$5*H19^2</f>
         <v>170.24341074264066</v>
       </c>
       <c r="I32" s="274">
-        <f t="shared" si="9"/>
+        <f>1+$B$4*I19+$B$5*I19^2</f>
         <v>164.826226633224</v>
       </c>
       <c r="J32" s="275">
-        <f t="shared" si="9"/>
+        <f>1+$B$4*J19+$B$5*J19^2</f>
         <v>162.65342503806983</v>
       </c>
       <c r="W32" s="14"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="30"/>
+      <c r="C33" s="250">
+        <v>0.318</v>
+      </c>
+      <c r="D33" s="251">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="E33" s="251">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F33" s="251">
+        <v>1.0740000000000001</v>
+      </c>
       <c r="W33" s="14"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -37291,12 +37869,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="H5:I5"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="C21:F21"/>
@@ -37306,6 +37878,12 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Task3/Data/Raw_data/Electric_Anisotropy_&_Magnetic_Permeability_Data.xlsx
+++ b/Task3/Data/Raw_data/Electric_Anisotropy_&_Magnetic_Permeability_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saad J\Desktop\epri\myepri\Task3\Data\Raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saad J\Desktop\epri\Oct20_EPRI\Task3\Data\Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6C8382-1B0C-48BC-A611-718E65DD1A90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F677E9A-8ECC-437D-BF16-30F50CED4B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" tabRatio="865" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" tabRatio="865" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="specimens" sheetId="7" r:id="rId1"/>
@@ -1834,16 +1834,13 @@
     <xf numFmtId="2" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1852,13 +1849,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1882,6 +1882,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1891,19 +1897,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1918,28 +1921,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1949,6 +1937,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1979,21 +1994,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -20561,12 +20561,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="277" t="s">
+      <c r="A1" s="282" t="s">
         <v>113</v>
       </c>
       <c r="B1" s="278"/>
       <c r="C1" s="278"/>
-      <c r="D1" s="279"/>
+      <c r="D1" s="283"/>
       <c r="E1" s="174"/>
       <c r="F1" s="174"/>
       <c r="G1" s="174"/>
@@ -20574,12 +20574,12 @@
       <c r="I1" s="174"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="280" t="s">
+      <c r="A2" s="279" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="281"/>
-      <c r="C2" s="281"/>
-      <c r="D2" s="282"/>
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="284"/>
       <c r="E2" s="174"/>
       <c r="F2" s="174"/>
       <c r="G2" s="183"/>
@@ -20588,14 +20588,14 @@
       <c r="J2" s="161"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="277" t="s">
+      <c r="A3" s="282" t="s">
         <v>145</v>
       </c>
       <c r="B3" s="278"/>
       <c r="C3" s="278" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="279"/>
+      <c r="D3" s="283"/>
       <c r="E3" s="174"/>
       <c r="F3" s="174"/>
       <c r="G3" s="183"/>
@@ -20604,27 +20604,27 @@
       <c r="J3" s="161"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="280" t="s">
+      <c r="A4" s="279" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="281"/>
-      <c r="C4" s="281" t="s">
+      <c r="B4" s="280"/>
+      <c r="C4" s="280" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="282"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="174"/>
       <c r="F4" s="174"/>
-      <c r="G4" s="276"/>
-      <c r="H4" s="276"/>
+      <c r="G4" s="281"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="182"/>
       <c r="J4" s="161"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="283" t="s">
+      <c r="A5" s="276" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="284"/>
-      <c r="C5" s="284" t="s">
+      <c r="B5" s="277"/>
+      <c r="C5" s="277" t="s">
         <v>112</v>
       </c>
       <c r="D5" s="285"/>
@@ -20647,12 +20647,12 @@
       <c r="I6" s="174"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="277" t="s">
+      <c r="A7" s="282" t="s">
         <v>144</v>
       </c>
       <c r="B7" s="278"/>
       <c r="C7" s="278"/>
-      <c r="D7" s="279"/>
+      <c r="D7" s="283"/>
       <c r="E7" s="174"/>
       <c r="F7" s="174"/>
       <c r="G7" s="174"/>
@@ -20660,20 +20660,20 @@
       <c r="I7" s="174"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="280" t="s">
+      <c r="A8" s="279" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="281"/>
+      <c r="B8" s="280"/>
       <c r="C8" s="180">
         <v>12</v>
       </c>
       <c r="D8" s="160"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="280" t="s">
+      <c r="A9" s="279" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="281"/>
+      <c r="B9" s="280"/>
       <c r="C9" s="172">
         <v>17.23883508535382</v>
       </c>
@@ -20682,10 +20682,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="280" t="s">
+      <c r="A10" s="279" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="281"/>
+      <c r="B10" s="280"/>
       <c r="C10" s="172">
         <v>6.2526606521323433</v>
       </c>
@@ -20694,10 +20694,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="280" t="s">
+      <c r="A11" s="279" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="281"/>
+      <c r="B11" s="280"/>
       <c r="C11" s="172">
         <f>SQRT(SUM(J24:J33))</f>
         <v>0.5738191903701122</v>
@@ -20707,10 +20707,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="283" t="s">
+      <c r="A12" s="276" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="284"/>
+      <c r="B12" s="277"/>
       <c r="C12" s="163">
         <v>4</v>
       </c>
@@ -20730,18 +20730,18 @@
       <c r="I13" s="174"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="277" t="s">
+      <c r="A14" s="282" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="278"/>
       <c r="C14" s="278"/>
-      <c r="D14" s="279"/>
+      <c r="D14" s="283"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="280" t="s">
+      <c r="A15" s="279" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="281"/>
+      <c r="B15" s="280"/>
       <c r="C15" s="159">
         <v>10</v>
       </c>
@@ -20750,10 +20750,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="280" t="s">
+      <c r="A16" s="279" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="281"/>
+      <c r="B16" s="280"/>
       <c r="C16" s="181">
         <v>5800000</v>
       </c>
@@ -20762,10 +20762,10 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="280" t="s">
+      <c r="A17" s="279" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="281"/>
+      <c r="B17" s="280"/>
       <c r="C17" s="159">
         <f>1.61</f>
         <v>1.61</v>
@@ -20775,10 +20775,10 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="280" t="s">
+      <c r="A18" s="279" t="s">
         <v>133</v>
       </c>
-      <c r="B18" s="281"/>
+      <c r="B18" s="280"/>
       <c r="C18" s="181">
         <f>C16*C17/C10</f>
         <v>1493444.2343061531</v>
@@ -20789,10 +20789,10 @@
       <c r="E18" s="175"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="280" t="s">
+      <c r="A19" s="279" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="281"/>
+      <c r="B19" s="280"/>
       <c r="C19" s="172">
         <f>C18/58000000*100</f>
         <v>2.5749038522519885</v>
@@ -20802,10 +20802,10 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="283" t="s">
+      <c r="A20" s="276" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="284"/>
+      <c r="B20" s="277"/>
       <c r="C20" s="32">
         <f>1/C18*100000000</f>
         <v>66.959313044895524</v>
@@ -22226,13 +22226,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A14:D14"/>
@@ -22249,6 +22242,13 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24564,27 +24564,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="277" t="s">
+      <c r="A1" s="282" t="s">
         <v>113</v>
       </c>
       <c r="B1" s="278"/>
       <c r="C1" s="278"/>
-      <c r="D1" s="279"/>
+      <c r="D1" s="283"/>
       <c r="F1" s="114"/>
       <c r="G1" s="114"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="280" t="s">
+      <c r="A2" s="279" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="281"/>
-      <c r="C2" s="281"/>
-      <c r="D2" s="282"/>
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="284"/>
       <c r="F2" s="27"/>
-      <c r="G2" s="292" t="s">
+      <c r="G2" s="294" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="293"/>
+      <c r="H2" s="295"/>
       <c r="I2" s="142">
         <v>50.456606666666659</v>
       </c>
@@ -24593,19 +24593,19 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="277" t="s">
+      <c r="A3" s="282" t="s">
         <v>109</v>
       </c>
       <c r="B3" s="278"/>
       <c r="C3" s="278" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="279"/>
+      <c r="D3" s="283"/>
       <c r="F3" s="103"/>
-      <c r="G3" s="294" t="s">
+      <c r="G3" s="296" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="276"/>
+      <c r="H3" s="281"/>
       <c r="I3" s="144">
         <v>49.705458333333326</v>
       </c>
@@ -24614,19 +24614,19 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="280" t="s">
+      <c r="A4" s="279" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="281"/>
-      <c r="C4" s="281" t="s">
+      <c r="B4" s="280"/>
+      <c r="C4" s="280" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="282"/>
+      <c r="D4" s="284"/>
       <c r="F4" s="103"/>
-      <c r="G4" s="295" t="s">
+      <c r="G4" s="292" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="296"/>
+      <c r="H4" s="293"/>
       <c r="I4" s="146">
         <v>1.5111988874461302</v>
       </c>
@@ -24635,11 +24635,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="283" t="s">
+      <c r="A5" s="276" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="284"/>
-      <c r="C5" s="284" t="s">
+      <c r="B5" s="277"/>
+      <c r="C5" s="277" t="s">
         <v>112</v>
       </c>
       <c r="D5" s="285"/>
@@ -24871,17 +24871,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -24910,18 +24910,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="277" t="s">
+      <c r="A1" s="282" t="s">
         <v>113</v>
       </c>
       <c r="B1" s="278"/>
       <c r="C1" s="278"/>
-      <c r="D1" s="279"/>
+      <c r="D1" s="283"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="H1" s="304" t="s">
+      <c r="H1" s="297" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="305"/>
+      <c r="I1" s="298"/>
       <c r="J1" s="114"/>
       <c r="K1" s="114"/>
       <c r="L1" s="5"/>
@@ -24929,23 +24929,23 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="280" t="s">
+      <c r="A2" s="279" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="281"/>
-      <c r="C2" s="281"/>
-      <c r="D2" s="282"/>
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="284"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="H2" s="306" t="s">
+      <c r="H2" s="299" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="307"/>
+      <c r="I2" s="300"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="292" t="s">
+      <c r="K2" s="294" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="293"/>
+      <c r="L2" s="295"/>
       <c r="M2" s="142">
         <v>50.456606666666659</v>
       </c>
@@ -24954,24 +24954,24 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="277" t="s">
+      <c r="A3" s="282" t="s">
         <v>109</v>
       </c>
       <c r="B3" s="278"/>
       <c r="C3" s="278" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="279"/>
+      <c r="D3" s="283"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="H3" s="300" t="s">
+      <c r="H3" s="301" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="301"/>
-      <c r="K3" s="294" t="s">
+      <c r="I3" s="302"/>
+      <c r="K3" s="296" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="276"/>
+      <c r="L3" s="281"/>
       <c r="M3" s="144">
         <v>49.705458333333326</v>
       </c>
@@ -24980,24 +24980,24 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="280" t="s">
+      <c r="A4" s="279" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="281"/>
-      <c r="C4" s="281" t="s">
+      <c r="B4" s="280"/>
+      <c r="C4" s="280" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="282"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="H4" s="302" t="s">
+      <c r="H4" s="303" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="303"/>
-      <c r="K4" s="295" t="s">
+      <c r="I4" s="304"/>
+      <c r="K4" s="292" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="296"/>
+      <c r="L4" s="293"/>
       <c r="M4" s="146">
         <v>1.5111988874461302</v>
       </c>
@@ -25006,11 +25006,11 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="283" t="s">
+      <c r="A5" s="276" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="284"/>
-      <c r="C5" s="284" t="s">
+      <c r="B5" s="277"/>
+      <c r="C5" s="277" t="s">
         <v>112</v>
       </c>
       <c r="D5" s="285"/>
@@ -25033,18 +25033,18 @@
       <c r="B7" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="297" t="s">
+      <c r="C7" s="305" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="298"/>
-      <c r="E7" s="298"/>
-      <c r="F7" s="298"/>
-      <c r="G7" s="297" t="s">
+      <c r="D7" s="306"/>
+      <c r="E7" s="306"/>
+      <c r="F7" s="306"/>
+      <c r="G7" s="305" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="298"/>
-      <c r="I7" s="298"/>
-      <c r="J7" s="299"/>
+      <c r="H7" s="306"/>
+      <c r="I7" s="306"/>
+      <c r="J7" s="307"/>
       <c r="K7" s="100" t="s">
         <v>5</v>
       </c>
@@ -25054,12 +25054,12 @@
       <c r="M7" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="297" t="s">
+      <c r="N7" s="305" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="298"/>
-      <c r="P7" s="298"/>
-      <c r="Q7" s="299"/>
+      <c r="O7" s="306"/>
+      <c r="P7" s="306"/>
+      <c r="Q7" s="307"/>
       <c r="R7" s="100" t="s">
         <v>5</v>
       </c>
@@ -28069,11 +28069,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="N7:Q7"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:L4"/>
@@ -28082,11 +28082,11 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -28100,7 +28100,7 @@
   </sheetPr>
   <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -28115,18 +28115,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="277" t="s">
+      <c r="A1" s="282" t="s">
         <v>90</v>
       </c>
       <c r="B1" s="278"/>
       <c r="C1" s="278" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="279"/>
+      <c r="D1" s="283"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
       <c r="J1" s="114"/>
       <c r="K1" s="114"/>
       <c r="L1" s="5"/>
@@ -28134,20 +28134,20 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="280" t="s">
+      <c r="A2" s="279" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="281"/>
-      <c r="C2" s="281" t="s">
+      <c r="B2" s="280"/>
+      <c r="C2" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="282"/>
+      <c r="D2" s="284"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="H2" s="313" t="s">
+      <c r="H2" s="309" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="314"/>
+      <c r="I2" s="310"/>
       <c r="J2" s="27"/>
       <c r="K2" s="99"/>
       <c r="L2" s="5"/>
@@ -28155,59 +28155,59 @@
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="280" t="s">
+      <c r="A3" s="279" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="281"/>
-      <c r="C3" s="281" t="s">
+      <c r="B3" s="280"/>
+      <c r="C3" s="280" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="284"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="H3" s="300" t="s">
+      <c r="H3" s="301" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="301"/>
+      <c r="I3" s="302"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="280" t="s">
+      <c r="A4" s="279" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="281"/>
-      <c r="C4" s="281" t="s">
+      <c r="B4" s="280"/>
+      <c r="C4" s="280" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="282"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="H4" s="310" t="s">
+      <c r="H4" s="311" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="311"/>
+      <c r="I4" s="312"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="283" t="s">
+      <c r="A5" s="276" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="284"/>
-      <c r="C5" s="284" t="s">
+      <c r="B5" s="277"/>
+      <c r="C5" s="277" t="s">
         <v>97</v>
       </c>
       <c r="D5" s="285"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="98"/>
-      <c r="H5" s="308" t="s">
+      <c r="H5" s="313" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="309"/>
+      <c r="I5" s="314"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
@@ -28225,18 +28225,18 @@
       <c r="B7" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="297" t="s">
+      <c r="C7" s="305" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="298"/>
-      <c r="E7" s="298"/>
-      <c r="F7" s="298"/>
-      <c r="G7" s="297" t="s">
+      <c r="D7" s="306"/>
+      <c r="E7" s="306"/>
+      <c r="F7" s="306"/>
+      <c r="G7" s="305" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="298"/>
-      <c r="I7" s="298"/>
-      <c r="J7" s="299"/>
+      <c r="H7" s="306"/>
+      <c r="I7" s="306"/>
+      <c r="J7" s="307"/>
       <c r="K7" s="165" t="s">
         <v>5</v>
       </c>
@@ -28246,12 +28246,12 @@
       <c r="M7" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="297" t="s">
+      <c r="N7" s="305" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="298"/>
-      <c r="P7" s="298"/>
-      <c r="Q7" s="299"/>
+      <c r="O7" s="306"/>
+      <c r="P7" s="306"/>
+      <c r="Q7" s="307"/>
       <c r="R7" s="165" t="s">
         <v>5</v>
       </c>
@@ -31610,24 +31610,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -31657,87 +31657,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="277" t="s">
+      <c r="A1" s="282" t="s">
         <v>90</v>
       </c>
       <c r="B1" s="278"/>
       <c r="C1" s="278" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="279"/>
+      <c r="D1" s="283"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
       <c r="J1" s="114"/>
       <c r="K1" s="114"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="280" t="s">
+      <c r="A2" s="279" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="281"/>
-      <c r="C2" s="281" t="s">
+      <c r="B2" s="280"/>
+      <c r="C2" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="282"/>
+      <c r="D2" s="284"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="H2" s="313" t="s">
+      <c r="H2" s="309" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="314"/>
+      <c r="I2" s="310"/>
       <c r="J2" s="27"/>
       <c r="K2" s="93"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="280" t="s">
+      <c r="A3" s="279" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="281"/>
-      <c r="C3" s="281" t="s">
+      <c r="B3" s="280"/>
+      <c r="C3" s="280" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="284"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="H3" s="300" t="s">
+      <c r="H3" s="301" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="301"/>
+      <c r="I3" s="302"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="280" t="s">
+      <c r="A4" s="279" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="281"/>
-      <c r="C4" s="281" t="s">
+      <c r="B4" s="280"/>
+      <c r="C4" s="280" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="282"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="H4" s="310" t="s">
+      <c r="H4" s="311" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="311"/>
+      <c r="I4" s="312"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="283" t="s">
+      <c r="A5" s="276" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="284"/>
-      <c r="C5" s="284" t="s">
+      <c r="B5" s="277"/>
+      <c r="C5" s="277" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="285"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="98"/>
-      <c r="H5" s="308" t="s">
+      <c r="H5" s="313" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="309"/>
+      <c r="I5" s="314"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
@@ -31747,11 +31747,11 @@
       <c r="D6" s="5"/>
       <c r="F6" s="98"/>
       <c r="G6" s="98"/>
-      <c r="V6" s="277" t="s">
+      <c r="V6" s="282" t="s">
         <v>120</v>
       </c>
       <c r="W6" s="278"/>
-      <c r="X6" s="279"/>
+      <c r="X6" s="283"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="94" t="s">
@@ -31760,18 +31760,18 @@
       <c r="B7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="297" t="s">
+      <c r="C7" s="305" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="298"/>
-      <c r="E7" s="298"/>
-      <c r="F7" s="298"/>
-      <c r="G7" s="297" t="s">
+      <c r="D7" s="306"/>
+      <c r="E7" s="306"/>
+      <c r="F7" s="306"/>
+      <c r="G7" s="305" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="298"/>
-      <c r="I7" s="298"/>
-      <c r="J7" s="299"/>
+      <c r="H7" s="306"/>
+      <c r="I7" s="306"/>
+      <c r="J7" s="307"/>
       <c r="K7" s="94" t="s">
         <v>5</v>
       </c>
@@ -31781,12 +31781,12 @@
       <c r="M7" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="297" t="s">
+      <c r="N7" s="305" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="298"/>
-      <c r="P7" s="298"/>
-      <c r="Q7" s="299"/>
+      <c r="O7" s="306"/>
+      <c r="P7" s="306"/>
+      <c r="Q7" s="307"/>
       <c r="R7" s="94" t="s">
         <v>5</v>
       </c>
@@ -35216,12 +35216,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="A3:B3"/>
@@ -35230,11 +35229,12 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -35248,7 +35248,7 @@
   </sheetPr>
   <dimension ref="A1:X178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8:J8"/>
     </sheetView>
   </sheetViews>
@@ -35263,32 +35263,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="317" t="s">
+      <c r="A1" s="322" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
-      <c r="E1" s="319"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="K1" s="315" t="s">
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="324"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
+      <c r="K1" s="320" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="316"/>
+      <c r="L1" s="321"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="320" t="s">
+      <c r="A2" s="325" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="321"/>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="322"/>
-      <c r="H2" s="313" t="s">
+      <c r="B2" s="326"/>
+      <c r="C2" s="326"/>
+      <c r="D2" s="326"/>
+      <c r="E2" s="327"/>
+      <c r="H2" s="309" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="314"/>
+      <c r="I2" s="310"/>
       <c r="K2" s="104" t="s">
         <v>72</v>
       </c>
@@ -35297,17 +35297,17 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="325" t="s">
+      <c r="A3" s="315" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="326"/>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="327"/>
-      <c r="H3" s="300" t="s">
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="317"/>
+      <c r="H3" s="301" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="301"/>
+      <c r="I3" s="302"/>
       <c r="K3" s="107" t="s">
         <v>73</v>
       </c>
@@ -35323,15 +35323,15 @@
         <f>0.06</f>
         <v>0.06</v>
       </c>
-      <c r="C4" s="328" t="s">
+      <c r="C4" s="318" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="328"/>
-      <c r="E4" s="329"/>
-      <c r="H4" s="310" t="s">
+      <c r="D4" s="318"/>
+      <c r="E4" s="319"/>
+      <c r="H4" s="311" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="311"/>
+      <c r="I4" s="312"/>
       <c r="K4" s="104" t="s">
         <v>71</v>
       </c>
@@ -35346,15 +35346,15 @@
       <c r="B5" s="68">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="C5" s="323" t="s">
+      <c r="C5" s="328" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="323"/>
-      <c r="E5" s="324"/>
-      <c r="H5" s="308" t="s">
+      <c r="D5" s="328"/>
+      <c r="E5" s="329"/>
+      <c r="H5" s="313" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="309"/>
+      <c r="I5" s="314"/>
       <c r="K5" s="106">
         <v>150</v>
       </c>
@@ -35413,18 +35413,18 @@
       <c r="B8" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="297" t="s">
+      <c r="C8" s="305" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="298"/>
-      <c r="E8" s="298"/>
-      <c r="F8" s="298"/>
-      <c r="G8" s="297" t="s">
+      <c r="D8" s="306"/>
+      <c r="E8" s="306"/>
+      <c r="F8" s="306"/>
+      <c r="G8" s="305" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="298"/>
-      <c r="I8" s="298"/>
-      <c r="J8" s="298"/>
+      <c r="H8" s="306"/>
+      <c r="I8" s="306"/>
+      <c r="J8" s="306"/>
       <c r="K8" s="100" t="s">
         <v>5</v>
       </c>
@@ -35956,19 +35956,19 @@
       <c r="B21" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="297" t="s">
+      <c r="C21" s="305" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="298"/>
-      <c r="E21" s="298"/>
-      <c r="F21" s="298"/>
-      <c r="G21" s="297" t="str">
+      <c r="D21" s="306"/>
+      <c r="E21" s="306"/>
+      <c r="F21" s="306"/>
+      <c r="G21" s="305" t="str">
         <f>"  average relative permeability (1-10)"</f>
         <v xml:space="preserve">  average relative permeability (1-10)</v>
       </c>
-      <c r="H21" s="298"/>
-      <c r="I21" s="298"/>
-      <c r="J21" s="298"/>
+      <c r="H21" s="306"/>
+      <c r="I21" s="306"/>
+      <c r="J21" s="306"/>
       <c r="K21" s="100" t="s">
         <v>5</v>
       </c>
@@ -37869,6 +37869,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="C21:F21"/>
@@ -37878,12 +37884,6 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
